--- a/jiawei_trupath_csv/MOR_DAMGO_arr1_normalize_deer+arr.xlsx
+++ b/jiawei_trupath_csv/MOR_DAMGO_arr1_normalize_deer+arr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangab/Dropbox/My Mac (Haoqing’s MacBook Pro)/Documents/GitHub/mglur5_MWC/jiawei_trupath_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A8273-4761-F641-AB30-2CCAAEA9B313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63889492-252D-1A4E-A4D4-30B3A50CC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39020" yWindow="4060" windowWidth="25640" windowHeight="14440" xr2:uid="{A351AFC8-AEB2-F140-A11D-809137619881}"/>
+    <workbookView xWindow="4020" yWindow="6280" windowWidth="38400" windowHeight="20160" xr2:uid="{A351AFC8-AEB2-F140-A11D-809137619881}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B66" sqref="B66:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
